--- a/Data/Odds/NFL/NFL odds 2020-21.xlsx
+++ b/Data/Odds/NFL/NFL odds 2020-21.xlsx
@@ -946,10 +946,8 @@
       <c r="L11" t="n">
         <v>130</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="M11" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -3114,10 +3112,8 @@
       <c r="L59" t="n">
         <v>290</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="M59" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
@@ -12267,10 +12263,8 @@
       <c r="L262" t="n">
         <v>220</v>
       </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="M262" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="263">
